--- a/Data/EUDA/Cannabis_detaille/mode_consommation_deja_traite.xlsx
+++ b/Data/EUDA/Cannabis_detaille/mode_consommation_deja_traite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Inject.deja.deja.deja</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Inject</t>
+          <t>Smoke / inhale.deja.deja.deja</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Smoke / inhale</t>
+          <t>Eat / drink.deja.deja.deja</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Eat / drink</t>
+          <t>Sniff.deja.deja.deja</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Sniff</t>
+          <t>Other.deja.deja.deja</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Not known / missing.deja.deja.deja</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.deja.deja.deja</t>
         </is>
       </c>
     </row>
@@ -487,27 +482,24 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="D2" t="n">
-        <v>401</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
-      </c>
-      <c r="I2" t="n">
         <v>458</v>
       </c>
     </row>
@@ -518,27 +510,24 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>1283</v>
       </c>
       <c r="D3" t="n">
-        <v>1283</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="H3" t="n">
-        <v>209</v>
-      </c>
-      <c r="I3" t="n">
         <v>1524</v>
       </c>
     </row>
@@ -549,13 +538,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -564,12 +553,9 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
         <v>42</v>
       </c>
     </row>
@@ -580,27 +566,24 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D5" t="n">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
         <v>190</v>
       </c>
     </row>
@@ -611,19 +594,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
         <v>66</v>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="H6" t="n">
         <v>66</v>
       </c>
     </row>
@@ -634,25 +614,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>451</v>
       </c>
       <c r="D7" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>11</v>
+      </c>
       <c r="H7" t="n">
-        <v>11</v>
-      </c>
-      <c r="I7" t="n">
         <v>469</v>
       </c>
     </row>
@@ -663,25 +640,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="D8" t="n">
-        <v>1432</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>33</v>
+      </c>
       <c r="H8" t="n">
-        <v>33</v>
-      </c>
-      <c r="I8" t="n">
         <v>1473</v>
       </c>
     </row>
@@ -691,20 +665,17 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
+      <c r="H9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -715,13 +686,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -733,9 +704,6 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
         <v>26</v>
       </c>
     </row>
@@ -746,27 +714,24 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>3497</v>
       </c>
       <c r="D11" t="n">
-        <v>3497</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="H11" t="n">
-        <v>54</v>
-      </c>
-      <c r="I11" t="n">
         <v>3648</v>
       </c>
     </row>
@@ -777,27 +742,24 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>4695</v>
       </c>
       <c r="D12" t="n">
-        <v>4695</v>
+        <v>74</v>
       </c>
       <c r="E12" t="n">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2129</v>
       </c>
       <c r="H12" t="n">
-        <v>2129</v>
-      </c>
-      <c r="I12" t="n">
         <v>6921</v>
       </c>
     </row>
@@ -808,27 +770,24 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="D13" t="n">
-        <v>295</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
         <v>299</v>
       </c>
     </row>
@@ -839,27 +798,24 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="D14" t="n">
-        <v>444</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
         <v>488</v>
       </c>
     </row>
@@ -870,16 +826,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="D15" t="n">
-        <v>648</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -888,9 +844,6 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
         <v>650</v>
       </c>
     </row>
@@ -901,27 +854,24 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2934</v>
       </c>
       <c r="D16" t="n">
-        <v>2934</v>
+        <v>35</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="H16" t="n">
-        <v>324</v>
-      </c>
-      <c r="I16" t="n">
         <v>3322</v>
       </c>
     </row>
@@ -932,27 +882,24 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D17" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
         <v>76</v>
       </c>
     </row>
@@ -962,18 +909,15 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
         <v>11</v>
       </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
+      <c r="H18" t="n">
         <v>11</v>
       </c>
     </row>
@@ -983,22 +927,19 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
         <v>49</v>
       </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
         <v>51</v>
       </c>
     </row>
@@ -1008,20 +949,17 @@
           <t>Malta</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>150</v>
+      </c>
       <c r="D20" t="n">
-        <v>150</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
+      <c r="H20" t="n">
         <v>151</v>
       </c>
     </row>
@@ -1032,27 +970,24 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>790</v>
       </c>
       <c r="D21" t="n">
-        <v>790</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="H21" t="n">
-        <v>777</v>
-      </c>
-      <c r="I21" t="n">
         <v>1577</v>
       </c>
     </row>
@@ -1069,7 +1004,6 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1078,27 +1012,24 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="D23" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
         <v>490</v>
       </c>
     </row>
@@ -1109,27 +1040,24 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D24" t="n">
-        <v>320</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H24" t="n">
-        <v>17</v>
-      </c>
-      <c r="I24" t="n">
         <v>342</v>
       </c>
     </row>
@@ -1140,27 +1068,24 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="D25" t="n">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
         <v>370</v>
       </c>
     </row>
@@ -1170,24 +1095,21 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>179</v>
+      </c>
       <c r="D26" t="n">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
         <v>5</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
         <v>186</v>
       </c>
     </row>
@@ -1198,13 +1120,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1216,9 +1138,6 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1229,27 +1148,24 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3078</v>
       </c>
       <c r="D28" t="n">
-        <v>3078</v>
+        <v>45</v>
       </c>
       <c r="E28" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H28" t="n">
-        <v>13</v>
-      </c>
-      <c r="I28" t="n">
         <v>3160</v>
       </c>
     </row>
@@ -1266,7 +1182,6 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1275,27 +1190,24 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="D30" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
         <v>277</v>
       </c>
     </row>
@@ -1308,7 +1220,6 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1323,7 +1234,6 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1338,7 +1248,6 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
